--- a/TotalDownloads.xlsx
+++ b/TotalDownloads.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert/Desktop/CHOP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert/Google_Drive/2 Projects/CHOP/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38980" yWindow="5180" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="47380" yWindow="4420" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -404,6 +404,14 @@
         <v>1522</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B7">
+        <v>1886</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TotalDownloads.xlsx
+++ b/TotalDownloads.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="47380" yWindow="4420" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="43200" yWindow="4420" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -366,7 +367,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44123</v>
+        <v>44105</v>
       </c>
       <c r="B2">
         <v>569</v>
@@ -374,7 +375,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44154</v>
+        <v>44136</v>
       </c>
       <c r="B3">
         <v>449</v>
@@ -382,7 +383,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44184</v>
+        <v>44166</v>
       </c>
       <c r="B4">
         <v>405</v>
@@ -398,7 +399,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>43881</v>
+        <v>43862</v>
       </c>
       <c r="B6">
         <v>1522</v>
@@ -406,10 +407,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43910</v>
+        <v>43891</v>
       </c>
       <c r="B7">
         <v>1886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B8">
+        <v>1870</v>
       </c>
     </row>
   </sheetData>
